--- a/Dividi_Cerca_PdfCF/Log.xlsx
+++ b/Dividi_Cerca_PdfCF/Log.xlsx
@@ -667,7 +667,7 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -678,7 +678,7 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -975,7 +975,7 @@
         <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -986,7 +986,7 @@
         <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:3">

--- a/Dividi_Cerca_PdfCF/Log.xlsx
+++ b/Dividi_Cerca_PdfCF/Log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
   <si>
     <t>Pagina del PDF</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>NON era presente nell'Excel</t>
-  </si>
-  <si>
-    <t>Era presente nell'Excel</t>
   </si>
 </sst>
 </file>
@@ -667,7 +664,7 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -678,7 +675,7 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -788,7 +785,7 @@
         <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -799,7 +796,7 @@
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -810,7 +807,7 @@
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -975,7 +972,7 @@
         <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -986,7 +983,7 @@
         <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:3">
